--- a/database/industries/darou/deabid/cost/quarterly.xlsx
+++ b/database/industries/darou/deabid/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\deabid\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\deabid\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26305E21-5DCC-4782-8967-B9613EF65EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E494A742-482B-4400-A8A1-FBE108A625DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="82">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,6 +34,18 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/03</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/06</t>
   </si>
   <si>
@@ -49,6 +61,9 @@
     <t>فصل سوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>مواد مستقیم مصرفی</t>
   </si>
   <si>
@@ -82,6 +97,9 @@
     <t>موجودی کالای ساخته شده پایان دوره</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>بهای تمام شده کالای فروش رفته</t>
   </si>
   <si>
@@ -98,9 +116,6 @@
   </si>
   <si>
     <t>میلیون ریال</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>مواد اولیه</t>
@@ -706,16 +721,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I147"/>
+  <dimension ref="B1:N147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -724,8 +739,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -736,8 +756,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -748,8 +773,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -758,8 +788,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -770,8 +805,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -782,8 +822,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -792,8 +837,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -814,8 +864,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -824,98 +889,163 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>1152289</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1874039</v>
+      </c>
+      <c r="G10" s="9">
+        <v>2138951</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1679885</v>
+      </c>
+      <c r="I10" s="9">
         <v>2203495</v>
       </c>
-      <c r="F10" s="9">
+      <c r="J10" s="9">
         <v>2241413</v>
       </c>
-      <c r="G10" s="9">
+      <c r="K10" s="9">
         <v>2493364</v>
       </c>
-      <c r="H10" s="9">
+      <c r="L10" s="9">
         <v>2977539</v>
       </c>
-      <c r="I10" s="9">
+      <c r="M10" s="9">
         <v>3785198</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N10" s="9">
+        <v>4804791</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>83492</v>
+      </c>
+      <c r="F11" s="11">
+        <v>82964</v>
+      </c>
+      <c r="G11" s="11">
+        <v>99152</v>
+      </c>
+      <c r="H11" s="11">
+        <v>126489</v>
+      </c>
+      <c r="I11" s="11">
         <v>129327</v>
       </c>
-      <c r="F11" s="11">
+      <c r="J11" s="11">
         <v>154516</v>
       </c>
-      <c r="G11" s="11">
+      <c r="K11" s="11">
         <v>136678</v>
       </c>
-      <c r="H11" s="11">
+      <c r="L11" s="11">
         <v>201188</v>
       </c>
-      <c r="I11" s="11">
+      <c r="M11" s="11">
         <v>257262</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N11" s="11">
+        <v>241983</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>368336</v>
+      </c>
+      <c r="F12" s="9">
+        <v>427815</v>
+      </c>
+      <c r="G12" s="9">
+        <v>453578</v>
+      </c>
+      <c r="H12" s="9">
+        <v>515421</v>
+      </c>
+      <c r="I12" s="9">
         <v>548693</v>
       </c>
-      <c r="F12" s="9">
+      <c r="J12" s="9">
         <v>700933</v>
       </c>
-      <c r="G12" s="9">
+      <c r="K12" s="9">
         <v>786609</v>
       </c>
-      <c r="H12" s="9">
+      <c r="L12" s="9">
         <v>869297</v>
       </c>
-      <c r="I12" s="9">
+      <c r="M12" s="9">
         <v>1007166</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N12" s="9">
+        <v>1180837</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>1604117</v>
+      </c>
+      <c r="F13" s="13">
+        <v>2384818</v>
+      </c>
+      <c r="G13" s="13">
+        <v>2691681</v>
+      </c>
+      <c r="H13" s="13">
+        <v>2321795</v>
+      </c>
+      <c r="I13" s="13">
         <v>2881515</v>
       </c>
-      <c r="F13" s="13">
+      <c r="J13" s="13">
         <v>3096862</v>
       </c>
-      <c r="G13" s="13">
+      <c r="K13" s="13">
         <v>3416651</v>
       </c>
-      <c r="H13" s="13">
+      <c r="L13" s="13">
         <v>4048024</v>
       </c>
-      <c r="I13" s="13">
+      <c r="M13" s="13">
         <v>5049626</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N13" s="13">
+        <v>6227611</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -934,98 +1064,173 @@
       <c r="I14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>1604117</v>
+      </c>
+      <c r="F15" s="13">
+        <v>2384818</v>
+      </c>
+      <c r="G15" s="13">
+        <v>2691681</v>
+      </c>
+      <c r="H15" s="13">
+        <v>2321795</v>
+      </c>
+      <c r="I15" s="13">
         <v>2881515</v>
       </c>
-      <c r="F15" s="13">
+      <c r="J15" s="13">
         <v>3096862</v>
       </c>
-      <c r="G15" s="13">
+      <c r="K15" s="13">
         <v>3416651</v>
       </c>
-      <c r="H15" s="13">
+      <c r="L15" s="13">
         <v>4048024</v>
       </c>
-      <c r="I15" s="13">
+      <c r="M15" s="13">
         <v>5049626</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N15" s="13">
+        <v>6227611</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>-59985</v>
+      </c>
+      <c r="F16" s="9">
+        <v>-56638</v>
+      </c>
+      <c r="G16" s="9">
+        <v>681</v>
+      </c>
+      <c r="H16" s="9">
+        <v>-12456</v>
+      </c>
+      <c r="I16" s="9">
         <v>99442</v>
       </c>
-      <c r="F16" s="9">
+      <c r="J16" s="9">
         <v>-103278</v>
       </c>
-      <c r="G16" s="9">
+      <c r="K16" s="9">
         <v>123646</v>
       </c>
-      <c r="H16" s="9">
+      <c r="L16" s="9">
         <v>-361387</v>
       </c>
-      <c r="I16" s="9">
+      <c r="M16" s="9">
         <v>-1090</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N16" s="9">
+        <v>-199378</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
+        <v>-696</v>
+      </c>
+      <c r="F17" s="11">
+        <v>-1037</v>
+      </c>
+      <c r="G17" s="11">
+        <v>-306</v>
+      </c>
+      <c r="H17" s="11">
+        <v>-6418</v>
+      </c>
+      <c r="I17" s="11">
         <v>-2356</v>
       </c>
-      <c r="F17" s="11">
+      <c r="J17" s="11">
         <v>-4836</v>
       </c>
-      <c r="G17" s="11">
+      <c r="K17" s="11">
         <v>-520</v>
       </c>
-      <c r="H17" s="11">
+      <c r="L17" s="11">
         <v>-1178</v>
       </c>
-      <c r="I17" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>-2329</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>1543436</v>
+      </c>
+      <c r="F18" s="15">
+        <v>2327143</v>
+      </c>
+      <c r="G18" s="15">
+        <v>2692056</v>
+      </c>
+      <c r="H18" s="15">
+        <v>2302921</v>
+      </c>
+      <c r="I18" s="15">
         <v>2978601</v>
       </c>
-      <c r="F18" s="15">
+      <c r="J18" s="15">
         <v>2988748</v>
       </c>
-      <c r="G18" s="15">
+      <c r="K18" s="15">
         <v>3539777</v>
       </c>
-      <c r="H18" s="15">
+      <c r="L18" s="15">
         <v>3685459</v>
       </c>
-      <c r="I18" s="15">
+      <c r="M18" s="15">
         <v>5048536</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N18" s="15">
+        <v>6025904</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1033,107 +1238,182 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>-15612</v>
       </c>
       <c r="G19" s="11">
+        <v>2138013</v>
+      </c>
+      <c r="H19" s="11">
+        <v>2507</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>38803</v>
+      </c>
+      <c r="K19" s="11">
         <v>3129866</v>
       </c>
-      <c r="H19" s="11">
+      <c r="L19" s="11">
         <v>2</v>
       </c>
-      <c r="I19" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+      <c r="N19" s="11">
+        <v>1023481</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>77451</v>
+      </c>
+      <c r="F20" s="9">
+        <v>-323043</v>
+      </c>
+      <c r="G20" s="9">
+        <v>-2981926</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-411130</v>
+      </c>
+      <c r="I20" s="9">
         <v>38803</v>
       </c>
-      <c r="F20" s="9">
-        <v>224385</v>
-      </c>
-      <c r="G20" s="9">
+      <c r="J20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="9">
         <v>-3064553</v>
       </c>
-      <c r="H20" s="9">
+      <c r="L20" s="9">
         <v>-64872</v>
       </c>
-      <c r="I20" s="9">
+      <c r="M20" s="9">
         <v>-1023481</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N20" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>1620887</v>
+      </c>
+      <c r="F21" s="13">
+        <v>1988488</v>
+      </c>
+      <c r="G21" s="13">
+        <v>1848143</v>
+      </c>
+      <c r="H21" s="13">
+        <v>1894298</v>
+      </c>
+      <c r="I21" s="13">
         <v>3017404</v>
       </c>
-      <c r="F21" s="13">
+      <c r="J21" s="13">
         <v>3213133</v>
       </c>
-      <c r="G21" s="13">
+      <c r="K21" s="13">
         <v>3605090</v>
       </c>
-      <c r="H21" s="13">
+      <c r="L21" s="13">
         <v>3620589</v>
       </c>
-      <c r="I21" s="13">
+      <c r="M21" s="13">
         <v>4025055</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N21" s="13">
+        <v>5829956</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9">
+        <v>-135489</v>
+      </c>
+      <c r="F22" s="9">
+        <v>-59122</v>
+      </c>
+      <c r="G22" s="9">
+        <v>-108141</v>
+      </c>
+      <c r="H22" s="9">
+        <v>-143294</v>
+      </c>
+      <c r="I22" s="9">
         <v>-67343</v>
       </c>
-      <c r="F22" s="9">
+      <c r="J22" s="9">
         <v>-180032</v>
       </c>
-      <c r="G22" s="9">
+      <c r="K22" s="9">
         <v>-155867</v>
       </c>
-      <c r="H22" s="9">
+      <c r="L22" s="9">
         <v>-111961</v>
       </c>
-      <c r="I22" s="9">
+      <c r="M22" s="9">
         <v>-70678</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N22" s="9">
+        <v>-126865</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>1485398</v>
+      </c>
+      <c r="F23" s="13">
+        <v>1929366</v>
+      </c>
+      <c r="G23" s="13">
+        <v>1740002</v>
+      </c>
+      <c r="H23" s="13">
+        <v>1751004</v>
+      </c>
+      <c r="I23" s="13">
         <v>2950061</v>
       </c>
-      <c r="F23" s="13">
+      <c r="J23" s="13">
         <v>3033101</v>
       </c>
-      <c r="G23" s="13">
+      <c r="K23" s="13">
         <v>3449223</v>
       </c>
-      <c r="H23" s="13">
+      <c r="L23" s="13">
         <v>3508628</v>
       </c>
-      <c r="I23" s="13">
+      <c r="M23" s="13">
         <v>3954377</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N23" s="13">
+        <v>5703091</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1142,8 +1422,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1152,8 +1437,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1162,10 +1452,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1184,8 +1479,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1194,78 +1504,128 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="9">
-        <v>0</v>
+      <c r="E29" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="I29" s="9">
+        <v>0</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
+        <v>1157656098</v>
+      </c>
+      <c r="F30" s="11">
+        <v>841904595</v>
+      </c>
+      <c r="G30" s="11">
+        <v>951369040</v>
+      </c>
+      <c r="H30" s="11">
+        <v>1009269041</v>
+      </c>
+      <c r="I30" s="11">
         <v>1434507740</v>
       </c>
-      <c r="F30" s="11">
+      <c r="J30" s="11">
         <v>1664966680</v>
       </c>
-      <c r="G30" s="11">
+      <c r="K30" s="11">
         <v>535275270</v>
       </c>
-      <c r="H30" s="11">
+      <c r="L30" s="11">
         <v>547281160</v>
       </c>
-      <c r="I30" s="11">
+      <c r="M30" s="11">
         <v>752821349</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N30" s="11">
+        <v>722954199</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15">
+        <v>1157656098</v>
+      </c>
+      <c r="F31" s="15">
+        <v>841904595</v>
+      </c>
+      <c r="G31" s="15">
+        <v>951369040</v>
+      </c>
+      <c r="H31" s="15">
+        <v>1009269041</v>
+      </c>
+      <c r="I31" s="15">
         <v>1434507740</v>
       </c>
-      <c r="F31" s="15">
+      <c r="J31" s="15">
         <v>1664966680</v>
       </c>
-      <c r="G31" s="15">
+      <c r="K31" s="15">
         <v>535275270</v>
       </c>
-      <c r="H31" s="15">
+      <c r="L31" s="15">
         <v>547281160</v>
       </c>
-      <c r="I31" s="15">
+      <c r="M31" s="15">
         <v>752821349</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N31" s="15">
+        <v>722954199</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1274,8 +1634,13 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1284,8 +1649,13 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1294,10 +1664,15 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -1316,8 +1691,23 @@
       <c r="I35" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1326,78 +1716,128 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D37" s="9"/>
-      <c r="E37" s="9">
-        <v>0</v>
+      <c r="E37" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="H37" s="9">
+        <v>0</v>
+      </c>
+      <c r="I37" s="9">
+        <v>0</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
+        <v>-18573335</v>
+      </c>
+      <c r="F38" s="11">
+        <v>352566403</v>
+      </c>
+      <c r="G38" s="11">
+        <v>357563015</v>
+      </c>
+      <c r="H38" s="11">
+        <v>720933304</v>
+      </c>
+      <c r="I38" s="11">
         <v>606276211</v>
       </c>
-      <c r="F38" s="11">
+      <c r="J38" s="11">
         <v>-823265900</v>
       </c>
-      <c r="G38" s="11">
+      <c r="K38" s="11">
         <v>305684976</v>
       </c>
-      <c r="H38" s="11">
+      <c r="L38" s="11">
         <v>533024856</v>
       </c>
-      <c r="I38" s="11">
+      <c r="M38" s="11">
         <v>330985319</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N38" s="11">
+        <v>281526539</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15">
+        <v>-18573335</v>
+      </c>
+      <c r="F39" s="15">
+        <v>352566403</v>
+      </c>
+      <c r="G39" s="15">
+        <v>357563015</v>
+      </c>
+      <c r="H39" s="15">
+        <v>720933304</v>
+      </c>
+      <c r="I39" s="15">
         <v>606276211</v>
       </c>
-      <c r="F39" s="15">
+      <c r="J39" s="15">
         <v>-823265900</v>
       </c>
-      <c r="G39" s="15">
+      <c r="K39" s="15">
         <v>305684976</v>
       </c>
-      <c r="H39" s="15">
+      <c r="L39" s="15">
         <v>533024856</v>
       </c>
-      <c r="I39" s="15">
+      <c r="M39" s="15">
         <v>330985319</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N39" s="15">
+        <v>281526539</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1406,8 +1846,13 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1416,8 +1861,13 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1426,10 +1876,15 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -1448,8 +1903,23 @@
       <c r="I43" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1458,78 +1928,128 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D45" s="9"/>
-      <c r="E45" s="9">
-        <v>0</v>
+      <c r="E45" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="H45" s="9">
+        <v>0</v>
+      </c>
+      <c r="I45" s="9">
+        <v>0</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N45" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11">
+        <v>297178168</v>
+      </c>
+      <c r="F46" s="11">
+        <v>243101958</v>
+      </c>
+      <c r="G46" s="11">
+        <v>299663014</v>
+      </c>
+      <c r="H46" s="11">
+        <v>295694605</v>
+      </c>
+      <c r="I46" s="11">
         <v>375817271</v>
       </c>
-      <c r="F46" s="11">
+      <c r="J46" s="11">
         <v>306425510</v>
       </c>
-      <c r="G46" s="11">
+      <c r="K46" s="11">
         <v>293679086</v>
       </c>
-      <c r="H46" s="11">
+      <c r="L46" s="11">
         <v>326840153</v>
       </c>
-      <c r="I46" s="11">
+      <c r="M46" s="11">
         <v>360852469</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N46" s="11">
+        <v>367672681</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15">
+        <v>297178168</v>
+      </c>
+      <c r="F47" s="15">
+        <v>243101958</v>
+      </c>
+      <c r="G47" s="15">
+        <v>299663014</v>
+      </c>
+      <c r="H47" s="15">
+        <v>295694605</v>
+      </c>
+      <c r="I47" s="15">
         <v>375817271</v>
       </c>
-      <c r="F47" s="15">
+      <c r="J47" s="15">
         <v>306425510</v>
       </c>
-      <c r="G47" s="15">
+      <c r="K47" s="15">
         <v>293679086</v>
       </c>
-      <c r="H47" s="15">
+      <c r="L47" s="15">
         <v>326840153</v>
       </c>
-      <c r="I47" s="15">
+      <c r="M47" s="15">
         <v>360852469</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N47" s="15">
+        <v>367672681</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1538,8 +2058,13 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1548,8 +2073,13 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1558,10 +2088,15 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -1580,8 +2115,23 @@
       <c r="I51" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1590,78 +2140,128 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D53" s="9"/>
-      <c r="E53" s="9">
-        <v>0</v>
+      <c r="E53" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I53" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="H53" s="9">
+        <v>0</v>
+      </c>
+      <c r="I53" s="9">
+        <v>0</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L53" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N53" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
+        <v>841904595</v>
+      </c>
+      <c r="F54" s="11">
+        <v>951369040</v>
+      </c>
+      <c r="G54" s="11">
+        <v>1009269041</v>
+      </c>
+      <c r="H54" s="11">
+        <v>1434507740</v>
+      </c>
+      <c r="I54" s="11">
         <v>1664966680</v>
       </c>
-      <c r="F54" s="11">
+      <c r="J54" s="11">
         <v>535275270</v>
       </c>
-      <c r="G54" s="11">
+      <c r="K54" s="11">
         <v>547281160</v>
       </c>
-      <c r="H54" s="11">
+      <c r="L54" s="11">
         <v>752821349</v>
       </c>
-      <c r="I54" s="11">
+      <c r="M54" s="11">
         <v>722954199</v>
       </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N54" s="11">
+        <v>636808057</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
       <c r="E55" s="15">
+        <v>841904595</v>
+      </c>
+      <c r="F55" s="15">
+        <v>951369040</v>
+      </c>
+      <c r="G55" s="15">
+        <v>1009269041</v>
+      </c>
+      <c r="H55" s="15">
+        <v>1434507740</v>
+      </c>
+      <c r="I55" s="15">
         <v>1664966680</v>
       </c>
-      <c r="F55" s="15">
+      <c r="J55" s="15">
         <v>535275270</v>
       </c>
-      <c r="G55" s="15">
+      <c r="K55" s="15">
         <v>547281160</v>
       </c>
-      <c r="H55" s="15">
+      <c r="L55" s="15">
         <v>752821349</v>
       </c>
-      <c r="I55" s="15">
+      <c r="M55" s="15">
         <v>722954199</v>
       </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N55" s="15">
+        <v>636808057</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1670,8 +2270,13 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1680,8 +2285,13 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1690,10 +2300,15 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B59" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -1712,8 +2327,23 @@
       <c r="I59" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L59" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M59" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N59" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1722,78 +2352,128 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D61" s="9"/>
-      <c r="E61" s="9">
-        <v>0</v>
+      <c r="E61" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I61" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="I61" s="9">
+        <v>0</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L61" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M61" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N61" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11">
+        <v>2288600</v>
+      </c>
+      <c r="F62" s="11">
+        <v>2679310</v>
+      </c>
+      <c r="G62" s="11">
+        <v>4167319</v>
+      </c>
+      <c r="H62" s="11">
+        <v>4465026</v>
+      </c>
+      <c r="I62" s="11">
         <v>6606760</v>
       </c>
-      <c r="F62" s="11">
+      <c r="J62" s="11">
         <v>6136657</v>
       </c>
-      <c r="G62" s="11">
+      <c r="K62" s="11">
         <v>8252261</v>
       </c>
-      <c r="H62" s="11">
+      <c r="L62" s="11">
         <v>8075341</v>
       </c>
-      <c r="I62" s="11">
+      <c r="M62" s="11">
         <v>11847538</v>
       </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N62" s="11">
+        <v>10941370</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
       <c r="E63" s="15">
+        <v>2288600</v>
+      </c>
+      <c r="F63" s="15">
+        <v>2679310</v>
+      </c>
+      <c r="G63" s="15">
+        <v>4167319</v>
+      </c>
+      <c r="H63" s="15">
+        <v>4465026</v>
+      </c>
+      <c r="I63" s="15">
         <v>6606760</v>
       </c>
-      <c r="F63" s="15">
+      <c r="J63" s="15">
         <v>6136657</v>
       </c>
-      <c r="G63" s="15">
+      <c r="K63" s="15">
         <v>8252261</v>
       </c>
-      <c r="H63" s="15">
+      <c r="L63" s="15">
         <v>8075341</v>
       </c>
-      <c r="I63" s="15">
+      <c r="M63" s="15">
         <v>11847538</v>
       </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N63" s="15">
+        <v>10941370</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1802,8 +2482,13 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1812,8 +2497,13 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1822,10 +2512,15 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B67" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -1844,8 +2539,23 @@
       <c r="I67" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L67" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M67" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N67" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1854,78 +2564,128 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D69" s="9"/>
-      <c r="E69" s="9">
-        <v>0</v>
+      <c r="E69" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H69" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I69" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="H69" s="9">
+        <v>0</v>
+      </c>
+      <c r="I69" s="9">
+        <v>0</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K69" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L69" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M69" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N69" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
+        <v>1542999</v>
+      </c>
+      <c r="F70" s="11">
+        <v>3362048</v>
+      </c>
+      <c r="G70" s="11">
+        <v>2436658</v>
+      </c>
+      <c r="H70" s="11">
+        <v>3821618</v>
+      </c>
+      <c r="I70" s="11">
         <v>1733391</v>
       </c>
-      <c r="F70" s="11">
+      <c r="J70" s="11">
         <v>4370605</v>
       </c>
-      <c r="G70" s="11">
+      <c r="K70" s="11">
         <v>2316444</v>
       </c>
-      <c r="H70" s="11">
+      <c r="L70" s="11">
         <v>6749736</v>
       </c>
-      <c r="I70" s="11">
+      <c r="M70" s="11">
         <v>2879030</v>
       </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N70" s="11">
+        <v>7583081</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15">
+        <v>1542999</v>
+      </c>
+      <c r="F71" s="15">
+        <v>3362048</v>
+      </c>
+      <c r="G71" s="15">
+        <v>2436658</v>
+      </c>
+      <c r="H71" s="15">
+        <v>3821618</v>
+      </c>
+      <c r="I71" s="15">
         <v>1733391</v>
       </c>
-      <c r="F71" s="15">
+      <c r="J71" s="15">
         <v>4370605</v>
       </c>
-      <c r="G71" s="15">
+      <c r="K71" s="15">
         <v>2316444</v>
       </c>
-      <c r="H71" s="15">
+      <c r="L71" s="15">
         <v>6749736</v>
       </c>
-      <c r="I71" s="15">
+      <c r="M71" s="15">
         <v>2879030</v>
       </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N71" s="15">
+        <v>7583081</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1934,8 +2694,13 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1944,8 +2709,13 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1954,10 +2724,15 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+    </row>
+    <row r="75" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B75" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -1976,8 +2751,23 @@
       <c r="I75" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J75" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L75" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M75" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N75" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -1986,78 +2776,128 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D77" s="9"/>
-      <c r="E77" s="9">
-        <v>0</v>
+      <c r="E77" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H77" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I77" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="H77" s="9">
+        <v>0</v>
+      </c>
+      <c r="I77" s="9">
+        <v>0</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K77" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L77" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M77" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N77" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11">
+        <v>1152289</v>
+      </c>
+      <c r="F78" s="11">
+        <v>1874039</v>
+      </c>
+      <c r="G78" s="11">
+        <v>2138951</v>
+      </c>
+      <c r="H78" s="11">
+        <v>1679885</v>
+      </c>
+      <c r="I78" s="11">
         <v>2203495</v>
       </c>
-      <c r="F78" s="11">
+      <c r="J78" s="11">
         <v>2241413</v>
       </c>
-      <c r="G78" s="11">
+      <c r="K78" s="11">
         <v>2493364</v>
       </c>
-      <c r="H78" s="11">
+      <c r="L78" s="11">
         <v>2977539</v>
       </c>
-      <c r="I78" s="11">
+      <c r="M78" s="11">
         <v>3785198</v>
       </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N78" s="11">
+        <v>4804791</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15">
+        <v>1152289</v>
+      </c>
+      <c r="F79" s="15">
+        <v>1874039</v>
+      </c>
+      <c r="G79" s="15">
+        <v>2138951</v>
+      </c>
+      <c r="H79" s="15">
+        <v>1679885</v>
+      </c>
+      <c r="I79" s="15">
         <v>2203495</v>
       </c>
-      <c r="F79" s="15">
+      <c r="J79" s="15">
         <v>2241413</v>
       </c>
-      <c r="G79" s="15">
+      <c r="K79" s="15">
         <v>2493364</v>
       </c>
-      <c r="H79" s="15">
+      <c r="L79" s="15">
         <v>2977539</v>
       </c>
-      <c r="I79" s="15">
+      <c r="M79" s="15">
         <v>3785198</v>
       </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N79" s="15">
+        <v>4804791</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2066,8 +2906,13 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2076,8 +2921,13 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2086,10 +2936,15 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -2108,8 +2963,23 @@
       <c r="I83" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L83" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M83" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N83" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2118,78 +2988,128 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D85" s="9"/>
-      <c r="E85" s="9">
-        <v>0</v>
+      <c r="E85" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H85" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I85" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="H85" s="9">
+        <v>0</v>
+      </c>
+      <c r="I85" s="9">
+        <v>0</v>
+      </c>
+      <c r="J85" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K85" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L85" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M85" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N85" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
+        <v>2679310</v>
+      </c>
+      <c r="F86" s="11">
+        <v>4167319</v>
+      </c>
+      <c r="G86" s="11">
+        <v>4465026</v>
+      </c>
+      <c r="H86" s="11">
+        <v>6606760</v>
+      </c>
+      <c r="I86" s="11">
         <v>6136656</v>
       </c>
-      <c r="F86" s="11">
+      <c r="J86" s="11">
         <v>8252261</v>
       </c>
-      <c r="G86" s="11">
+      <c r="K86" s="11">
         <v>8075341</v>
       </c>
-      <c r="H86" s="11">
+      <c r="L86" s="11">
         <v>11847538</v>
       </c>
-      <c r="I86" s="11">
+      <c r="M86" s="11">
         <v>10941370</v>
       </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N86" s="11">
+        <v>13719660</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15">
+        <v>2679310</v>
+      </c>
+      <c r="F87" s="15">
+        <v>4167319</v>
+      </c>
+      <c r="G87" s="15">
+        <v>4465026</v>
+      </c>
+      <c r="H87" s="15">
+        <v>6606760</v>
+      </c>
+      <c r="I87" s="15">
         <v>6136656</v>
       </c>
-      <c r="F87" s="15">
+      <c r="J87" s="15">
         <v>8252261</v>
       </c>
-      <c r="G87" s="15">
+      <c r="K87" s="15">
         <v>8075341</v>
       </c>
-      <c r="H87" s="15">
+      <c r="L87" s="15">
         <v>11847538</v>
       </c>
-      <c r="I87" s="15">
+      <c r="M87" s="15">
         <v>10941370</v>
       </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N87" s="15">
+        <v>13719660</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2198,8 +3118,13 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2208,8 +3133,13 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2218,10 +3148,15 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B91" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -2240,8 +3175,23 @@
       <c r="I91" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J91" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K91" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L91" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M91" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N91" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2250,32 +3200,52 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9">
+        <v>1977</v>
+      </c>
+      <c r="F93" s="9">
+        <v>3182</v>
+      </c>
+      <c r="G93" s="9">
+        <v>4380</v>
+      </c>
+      <c r="H93" s="9">
+        <v>4424</v>
+      </c>
+      <c r="I93" s="9">
         <v>4606</v>
       </c>
-      <c r="F93" s="9">
+      <c r="J93" s="9">
         <v>3686</v>
       </c>
-      <c r="G93" s="9">
+      <c r="K93" s="9">
         <v>15417</v>
       </c>
-      <c r="H93" s="9">
+      <c r="L93" s="9">
         <v>14755</v>
       </c>
-      <c r="I93" s="9">
+      <c r="M93" s="9">
         <v>15738</v>
       </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N93" s="9">
+        <v>15134</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2284,8 +3254,13 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2294,8 +3269,13 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2304,10 +3284,15 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+    </row>
+    <row r="97" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -2326,8 +3311,23 @@
       <c r="I97" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J97" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K97" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L97" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M97" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N97" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2336,32 +3336,52 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9">
+        <v>-83076</v>
+      </c>
+      <c r="F99" s="9">
+        <v>9536</v>
+      </c>
+      <c r="G99" s="9">
+        <v>6815</v>
+      </c>
+      <c r="H99" s="9">
+        <v>5301</v>
+      </c>
+      <c r="I99" s="9">
         <v>2859</v>
       </c>
-      <c r="F99" s="9">
+      <c r="J99" s="9">
         <v>-5309</v>
       </c>
-      <c r="G99" s="9">
+      <c r="K99" s="9">
         <v>7578</v>
       </c>
-      <c r="H99" s="9">
+      <c r="L99" s="9">
         <v>12663</v>
       </c>
-      <c r="I99" s="9">
+      <c r="M99" s="9">
         <v>8698</v>
       </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N99" s="9">
+        <v>26936</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2370,8 +3390,13 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -2380,8 +3405,13 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2390,10 +3420,15 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-    </row>
-    <row r="103" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+    </row>
+    <row r="103" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B103" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
@@ -2412,8 +3447,23 @@
       <c r="I103" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J103" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K103" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L103" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M103" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N103" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2422,32 +3472,52 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9">
+        <v>3877</v>
+      </c>
+      <c r="F105" s="9">
+        <v>7709</v>
+      </c>
+      <c r="G105" s="9">
+        <v>7138</v>
+      </c>
+      <c r="H105" s="9">
+        <v>5681</v>
+      </c>
+      <c r="I105" s="9">
         <v>5863</v>
       </c>
-      <c r="F105" s="9">
+      <c r="J105" s="9">
         <v>7315</v>
       </c>
-      <c r="G105" s="9">
+      <c r="K105" s="9">
         <v>8490</v>
       </c>
-      <c r="H105" s="9">
+      <c r="L105" s="9">
         <v>9110</v>
       </c>
-      <c r="I105" s="9">
+      <c r="M105" s="9">
         <v>10490</v>
       </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N105" s="9">
+        <v>13068</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2456,8 +3526,13 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -2466,8 +3541,13 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2476,10 +3556,15 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-    </row>
-    <row r="109" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+    </row>
+    <row r="109" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B109" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
@@ -2498,8 +3583,23 @@
       <c r="I109" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J109" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K109" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L109" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M109" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N109" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2508,32 +3608,52 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D111" s="9"/>
-      <c r="E111" s="9">
+      <c r="E111" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H111" s="9">
+        <v>4606</v>
+      </c>
+      <c r="I111" s="9">
         <v>3686</v>
       </c>
-      <c r="F111" s="9">
+      <c r="J111" s="9">
         <v>15417</v>
       </c>
-      <c r="G111" s="9">
+      <c r="K111" s="9">
         <v>14755</v>
       </c>
-      <c r="H111" s="9">
+      <c r="L111" s="9">
         <v>15738</v>
       </c>
-      <c r="I111" s="9">
+      <c r="M111" s="9">
         <v>15134</v>
       </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N111" s="9">
+        <v>21544</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2542,8 +3662,13 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2552,8 +3677,13 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2562,10 +3692,15 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
-    </row>
-    <row r="115" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+    </row>
+    <row r="115" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B115" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -2584,8 +3719,23 @@
       <c r="I115" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J115" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K115" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L115" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M115" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N115" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2594,32 +3744,52 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
       <c r="E117" s="9">
+        <v>9709</v>
+      </c>
+      <c r="F117" s="9">
+        <v>13661</v>
+      </c>
+      <c r="G117" s="9">
+        <v>13237</v>
+      </c>
+      <c r="H117" s="9">
+        <v>12113</v>
+      </c>
+      <c r="I117" s="9">
         <v>19256</v>
       </c>
-      <c r="F117" s="9">
+      <c r="J117" s="9">
         <v>30119</v>
       </c>
-      <c r="G117" s="9">
+      <c r="K117" s="9">
         <v>26726</v>
       </c>
-      <c r="H117" s="9">
+      <c r="L117" s="9">
         <v>36913</v>
       </c>
-      <c r="I117" s="9">
+      <c r="M117" s="9">
         <v>50658</v>
       </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N117" s="9">
+        <v>48897</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
@@ -2638,10 +3808,25 @@
       <c r="I118" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J118" s="11">
+        <v>0</v>
+      </c>
+      <c r="K118" s="11">
+        <v>0</v>
+      </c>
+      <c r="L118" s="11">
+        <v>0</v>
+      </c>
+      <c r="M118" s="11">
+        <v>0</v>
+      </c>
+      <c r="N118" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
@@ -2660,120 +3845,210 @@
       <c r="I119" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J119" s="9">
+        <v>0</v>
+      </c>
+      <c r="K119" s="9">
+        <v>0</v>
+      </c>
+      <c r="L119" s="9">
+        <v>0</v>
+      </c>
+      <c r="M119" s="9">
+        <v>0</v>
+      </c>
+      <c r="N119" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="10" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C120" s="11"/>
       <c r="D120" s="11"/>
       <c r="E120" s="11">
+        <v>0</v>
+      </c>
+      <c r="F120" s="11">
+        <v>0</v>
+      </c>
+      <c r="G120" s="11">
+        <v>6485</v>
+      </c>
+      <c r="H120" s="11">
+        <v>3816</v>
+      </c>
+      <c r="I120" s="11">
         <v>11098</v>
       </c>
-      <c r="F120" s="11">
+      <c r="J120" s="11">
         <v>-21399</v>
       </c>
-      <c r="G120" s="11">
-        <v>0</v>
-      </c>
-      <c r="H120" s="11">
-        <v>0</v>
-      </c>
-      <c r="I120" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K120" s="11">
+        <v>0</v>
+      </c>
+      <c r="L120" s="11">
+        <v>0</v>
+      </c>
+      <c r="M120" s="11">
+        <v>0</v>
+      </c>
+      <c r="N120" s="11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="E121" s="9">
+        <v>54766</v>
+      </c>
+      <c r="F121" s="9">
+        <v>71141</v>
+      </c>
+      <c r="G121" s="9">
+        <v>76505</v>
+      </c>
+      <c r="H121" s="9">
+        <v>69146</v>
+      </c>
+      <c r="I121" s="9">
         <v>85251</v>
       </c>
-      <c r="F121" s="9">
+      <c r="J121" s="9">
         <v>76615</v>
       </c>
-      <c r="G121" s="9">
+      <c r="K121" s="9">
         <v>104006</v>
       </c>
-      <c r="H121" s="9">
+      <c r="L121" s="9">
         <v>99360</v>
       </c>
-      <c r="I121" s="9">
+      <c r="M121" s="9">
         <v>101924</v>
       </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N121" s="9">
+        <v>216191</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="10" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C122" s="11"/>
       <c r="D122" s="11"/>
       <c r="E122" s="11">
+        <v>5374</v>
+      </c>
+      <c r="F122" s="11">
+        <v>2111</v>
+      </c>
+      <c r="G122" s="11">
+        <v>3261</v>
+      </c>
+      <c r="H122" s="11">
+        <v>4965</v>
+      </c>
+      <c r="I122" s="11">
         <v>6241</v>
       </c>
-      <c r="F122" s="11">
+      <c r="J122" s="11">
         <v>5260</v>
       </c>
-      <c r="G122" s="11">
+      <c r="K122" s="11">
         <v>19019</v>
       </c>
-      <c r="H122" s="11">
+      <c r="L122" s="11">
         <v>13414</v>
       </c>
-      <c r="I122" s="11">
+      <c r="M122" s="11">
         <v>21536</v>
       </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N122" s="11">
+        <v>24094</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="9">
+        <v>45595</v>
+      </c>
+      <c r="F123" s="9">
+        <v>45146</v>
+      </c>
+      <c r="G123" s="9">
+        <v>50001</v>
+      </c>
+      <c r="H123" s="9">
+        <v>55630</v>
+      </c>
+      <c r="I123" s="9">
         <v>65109</v>
       </c>
-      <c r="F123" s="9">
+      <c r="J123" s="9">
         <v>64724</v>
       </c>
-      <c r="G123" s="9">
+      <c r="K123" s="9">
         <v>68764</v>
       </c>
-      <c r="H123" s="9">
+      <c r="L123" s="9">
         <v>83501</v>
       </c>
-      <c r="I123" s="9">
+      <c r="M123" s="9">
         <v>158833</v>
       </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N123" s="9">
+        <v>108868</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C124" s="11"/>
       <c r="D124" s="11"/>
       <c r="E124" s="11">
+        <v>114655</v>
+      </c>
+      <c r="F124" s="11">
+        <v>192183</v>
+      </c>
+      <c r="G124" s="11">
+        <v>172099</v>
+      </c>
+      <c r="H124" s="11">
+        <v>238156</v>
+      </c>
+      <c r="I124" s="11">
         <v>220477</v>
       </c>
-      <c r="F124" s="11">
+      <c r="J124" s="11">
         <v>283880</v>
       </c>
-      <c r="G124" s="11">
+      <c r="K124" s="11">
         <v>273879</v>
       </c>
-      <c r="H124" s="11">
+      <c r="L124" s="11">
         <v>423933</v>
       </c>
-      <c r="I124" s="11">
+      <c r="M124" s="11">
         <v>432653</v>
       </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N124" s="11">
+        <v>468820</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
@@ -2792,52 +4067,97 @@
       <c r="I125" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J125" s="9">
+        <v>0</v>
+      </c>
+      <c r="K125" s="9">
+        <v>0</v>
+      </c>
+      <c r="L125" s="9">
+        <v>0</v>
+      </c>
+      <c r="M125" s="9">
+        <v>0</v>
+      </c>
+      <c r="N125" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="10" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C126" s="11"/>
       <c r="D126" s="11"/>
       <c r="E126" s="11">
+        <v>138237</v>
+      </c>
+      <c r="F126" s="11">
+        <v>103573</v>
+      </c>
+      <c r="G126" s="11">
+        <v>131990</v>
+      </c>
+      <c r="H126" s="11">
+        <v>131595</v>
+      </c>
+      <c r="I126" s="11">
         <v>141261</v>
       </c>
-      <c r="F126" s="11">
+      <c r="J126" s="11">
         <v>261734</v>
       </c>
-      <c r="G126" s="11">
+      <c r="K126" s="11">
         <v>294215</v>
       </c>
-      <c r="H126" s="11">
+      <c r="L126" s="11">
         <v>212176</v>
       </c>
-      <c r="I126" s="11">
+      <c r="M126" s="11">
         <v>241562</v>
       </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N126" s="11">
+        <v>313633</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C127" s="15"/>
       <c r="D127" s="15"/>
       <c r="E127" s="15">
+        <v>368336</v>
+      </c>
+      <c r="F127" s="15">
+        <v>427815</v>
+      </c>
+      <c r="G127" s="15">
+        <v>453578</v>
+      </c>
+      <c r="H127" s="15">
+        <v>515421</v>
+      </c>
+      <c r="I127" s="15">
         <v>548693</v>
       </c>
-      <c r="F127" s="15">
+      <c r="J127" s="15">
         <v>700933</v>
       </c>
-      <c r="G127" s="15">
+      <c r="K127" s="15">
         <v>786609</v>
       </c>
-      <c r="H127" s="15">
+      <c r="L127" s="15">
         <v>869297</v>
       </c>
-      <c r="I127" s="15">
+      <c r="M127" s="15">
         <v>1007166</v>
       </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N127" s="15">
+        <v>1180837</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -2846,8 +4166,13 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -2856,8 +4181,13 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -2866,10 +4196,15 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
-    </row>
-    <row r="131" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+    </row>
+    <row r="131" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -2878,8 +4213,13 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -2888,13 +4228,18 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
@@ -2902,13 +4247,18 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="10" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="11"/>
@@ -2916,13 +4266,18 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
@@ -2930,13 +4285,18 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J135" s="1"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="1"/>
+      <c r="N135" s="1"/>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="10" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D136" s="11"/>
       <c r="E136" s="11"/>
@@ -2944,123 +4304,128 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+      <c r="N136" s="1"/>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11"/>
       <c r="F138" s="11"/>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="10" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D140" s="11"/>
       <c r="E140" s="11"/>
       <c r="F140" s="11"/>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="10" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D142" s="11"/>
       <c r="E142" s="11"/>
       <c r="F142" s="11"/>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="10" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D144" s="11"/>
       <c r="E144" s="11"/>
       <c r="F144" s="11"/>
     </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B145" s="8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
     </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B146" s="10" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D146" s="11"/>
       <c r="E146" s="11"/>
       <c r="F146" s="11"/>
     </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B147" s="8" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9"/>

--- a/database/industries/darou/deabid/cost/quarterly.xlsx
+++ b/database/industries/darou/deabid/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\deabid\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\deabid\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E494A742-482B-4400-A8A1-FBE108A625DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B591B027-662D-4EE7-9A2C-5F2D95CE1F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="82">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل سوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل چهارم منتهی به 1399/09</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
     <t>فصل چهارم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل اول منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>مواد مستقیم مصرفی</t>
   </si>
   <si>
@@ -97,25 +97,25 @@
     <t>موجودی کالای ساخته شده پایان دوره</t>
   </si>
   <si>
+    <t>بهای تمام شده کالای فروش رفته</t>
+  </si>
+  <si>
+    <t>بهای تمام شده خدمات ارایه شده</t>
+  </si>
+  <si>
+    <t>جمع بهای تمام شده</t>
+  </si>
+  <si>
+    <t>مقدار موجودی اول دوره</t>
+  </si>
+  <si>
+    <t>مواد اولیه وارداتی</t>
+  </si>
+  <si>
+    <t>میلیون ریال</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>بهای تمام شده کالای فروش رفته</t>
-  </si>
-  <si>
-    <t>بهای تمام شده خدمات ارایه شده</t>
-  </si>
-  <si>
-    <t>جمع بهای تمام شده</t>
-  </si>
-  <si>
-    <t>مقدار موجودی اول دوره</t>
-  </si>
-  <si>
-    <t>مواد اولیه وارداتی</t>
-  </si>
-  <si>
-    <t>میلیون ریال</t>
   </si>
   <si>
     <t>مواد اولیه</t>
@@ -725,12 +725,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -745,7 +745,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -762,7 +762,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -779,7 +779,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -794,7 +794,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -811,7 +811,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -828,7 +828,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -843,7 +843,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -880,7 +880,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -895,155 +895,155 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>1152289</v>
+        <v>1874039</v>
       </c>
       <c r="F10" s="9">
-        <v>1874039</v>
+        <v>2138951</v>
       </c>
       <c r="G10" s="9">
-        <v>2138951</v>
+        <v>1679885</v>
       </c>
       <c r="H10" s="9">
-        <v>1679885</v>
+        <v>2203495</v>
       </c>
       <c r="I10" s="9">
-        <v>2203495</v>
+        <v>2241413</v>
       </c>
       <c r="J10" s="9">
-        <v>2241413</v>
+        <v>2493364</v>
       </c>
       <c r="K10" s="9">
-        <v>2493364</v>
+        <v>2977539</v>
       </c>
       <c r="L10" s="9">
-        <v>2977539</v>
+        <v>3785198</v>
       </c>
       <c r="M10" s="9">
-        <v>3785198</v>
+        <v>4804791</v>
       </c>
       <c r="N10" s="9">
-        <v>4804791</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5074438</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>83492</v>
+        <v>82964</v>
       </c>
       <c r="F11" s="11">
-        <v>82964</v>
+        <v>99152</v>
       </c>
       <c r="G11" s="11">
-        <v>99152</v>
+        <v>126489</v>
       </c>
       <c r="H11" s="11">
-        <v>126489</v>
+        <v>129327</v>
       </c>
       <c r="I11" s="11">
-        <v>129327</v>
+        <v>154516</v>
       </c>
       <c r="J11" s="11">
-        <v>154516</v>
+        <v>136678</v>
       </c>
       <c r="K11" s="11">
-        <v>136678</v>
+        <v>201188</v>
       </c>
       <c r="L11" s="11">
-        <v>201188</v>
+        <v>257262</v>
       </c>
       <c r="M11" s="11">
-        <v>257262</v>
+        <v>241983</v>
       </c>
       <c r="N11" s="11">
-        <v>241983</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>323065</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>368336</v>
+        <v>427815</v>
       </c>
       <c r="F12" s="9">
-        <v>427815</v>
+        <v>453578</v>
       </c>
       <c r="G12" s="9">
-        <v>453578</v>
+        <v>515421</v>
       </c>
       <c r="H12" s="9">
-        <v>515421</v>
+        <v>548693</v>
       </c>
       <c r="I12" s="9">
-        <v>548693</v>
+        <v>700933</v>
       </c>
       <c r="J12" s="9">
-        <v>700933</v>
+        <v>786609</v>
       </c>
       <c r="K12" s="9">
-        <v>786609</v>
+        <v>869297</v>
       </c>
       <c r="L12" s="9">
-        <v>869297</v>
+        <v>1007166</v>
       </c>
       <c r="M12" s="9">
-        <v>1007166</v>
+        <v>1180837</v>
       </c>
       <c r="N12" s="9">
-        <v>1180837</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1216586</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>1604117</v>
+        <v>2384818</v>
       </c>
       <c r="F13" s="13">
-        <v>2384818</v>
+        <v>2691681</v>
       </c>
       <c r="G13" s="13">
-        <v>2691681</v>
+        <v>2321795</v>
       </c>
       <c r="H13" s="13">
-        <v>2321795</v>
+        <v>2881515</v>
       </c>
       <c r="I13" s="13">
-        <v>2881515</v>
+        <v>3096862</v>
       </c>
       <c r="J13" s="13">
-        <v>3096862</v>
+        <v>3416651</v>
       </c>
       <c r="K13" s="13">
-        <v>3416651</v>
+        <v>4048024</v>
       </c>
       <c r="L13" s="13">
-        <v>4048024</v>
+        <v>5049626</v>
       </c>
       <c r="M13" s="13">
-        <v>5049626</v>
+        <v>6227611</v>
       </c>
       <c r="N13" s="13">
-        <v>6227611</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6614089</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
@@ -1080,340 +1080,340 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>1604117</v>
+        <v>2384818</v>
       </c>
       <c r="F15" s="13">
-        <v>2384818</v>
+        <v>2691681</v>
       </c>
       <c r="G15" s="13">
-        <v>2691681</v>
+        <v>2321795</v>
       </c>
       <c r="H15" s="13">
-        <v>2321795</v>
+        <v>2881515</v>
       </c>
       <c r="I15" s="13">
-        <v>2881515</v>
+        <v>3096862</v>
       </c>
       <c r="J15" s="13">
-        <v>3096862</v>
+        <v>3416651</v>
       </c>
       <c r="K15" s="13">
-        <v>3416651</v>
+        <v>4048024</v>
       </c>
       <c r="L15" s="13">
-        <v>4048024</v>
+        <v>5049626</v>
       </c>
       <c r="M15" s="13">
-        <v>5049626</v>
+        <v>6227611</v>
       </c>
       <c r="N15" s="13">
-        <v>6227611</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6614089</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>-59985</v>
+        <v>-56638</v>
       </c>
       <c r="F16" s="9">
-        <v>-56638</v>
+        <v>681</v>
       </c>
       <c r="G16" s="9">
-        <v>681</v>
+        <v>-12456</v>
       </c>
       <c r="H16" s="9">
-        <v>-12456</v>
+        <v>99442</v>
       </c>
       <c r="I16" s="9">
-        <v>99442</v>
+        <v>-103278</v>
       </c>
       <c r="J16" s="9">
-        <v>-103278</v>
+        <v>123646</v>
       </c>
       <c r="K16" s="9">
-        <v>123646</v>
+        <v>-361387</v>
       </c>
       <c r="L16" s="9">
-        <v>-361387</v>
+        <v>-1090</v>
       </c>
       <c r="M16" s="9">
-        <v>-1090</v>
+        <v>-199378</v>
       </c>
       <c r="N16" s="9">
-        <v>-199378</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>232289</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>-696</v>
+        <v>-1037</v>
       </c>
       <c r="F17" s="11">
-        <v>-1037</v>
+        <v>-306</v>
       </c>
       <c r="G17" s="11">
-        <v>-306</v>
+        <v>-6418</v>
       </c>
       <c r="H17" s="11">
-        <v>-6418</v>
+        <v>-2356</v>
       </c>
       <c r="I17" s="11">
-        <v>-2356</v>
+        <v>-4836</v>
       </c>
       <c r="J17" s="11">
-        <v>-4836</v>
+        <v>-520</v>
       </c>
       <c r="K17" s="11">
-        <v>-520</v>
+        <v>-1178</v>
       </c>
       <c r="L17" s="11">
-        <v>-1178</v>
+        <v>0</v>
       </c>
       <c r="M17" s="11">
-        <v>0</v>
+        <v>-2329</v>
       </c>
       <c r="N17" s="11">
-        <v>-2329</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>1543436</v>
+        <v>2327143</v>
       </c>
       <c r="F18" s="15">
-        <v>2327143</v>
+        <v>2692056</v>
       </c>
       <c r="G18" s="15">
-        <v>2692056</v>
+        <v>2302921</v>
       </c>
       <c r="H18" s="15">
-        <v>2302921</v>
+        <v>2978601</v>
       </c>
       <c r="I18" s="15">
-        <v>2978601</v>
+        <v>2988748</v>
       </c>
       <c r="J18" s="15">
-        <v>2988748</v>
+        <v>3539777</v>
       </c>
       <c r="K18" s="15">
-        <v>3539777</v>
+        <v>3685459</v>
       </c>
       <c r="L18" s="15">
-        <v>3685459</v>
+        <v>5048536</v>
       </c>
       <c r="M18" s="15">
-        <v>5048536</v>
+        <v>6025904</v>
       </c>
       <c r="N18" s="15">
-        <v>6025904</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6846378</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>0</v>
+        <v>1817477</v>
       </c>
       <c r="F19" s="11">
-        <v>-15612</v>
+        <v>2138013</v>
       </c>
       <c r="G19" s="11">
-        <v>2138013</v>
+        <v>2507</v>
       </c>
       <c r="H19" s="11">
-        <v>2507</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
-        <v>0</v>
+        <v>3354253</v>
       </c>
       <c r="J19" s="11">
-        <v>38803</v>
+        <v>3129866</v>
       </c>
       <c r="K19" s="11">
-        <v>3129866</v>
+        <v>3064553</v>
       </c>
       <c r="L19" s="11">
-        <v>2</v>
+        <v>3129425</v>
       </c>
       <c r="M19" s="11">
-        <v>0</v>
+        <v>4152906</v>
       </c>
       <c r="N19" s="11">
-        <v>1023481</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4348854</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>77451</v>
+        <v>-2140520</v>
       </c>
       <c r="F20" s="9">
-        <v>-323043</v>
+        <v>-2981926</v>
       </c>
       <c r="G20" s="9">
-        <v>-2981926</v>
+        <v>-411130</v>
       </c>
       <c r="H20" s="9">
-        <v>-411130</v>
+        <v>38803</v>
       </c>
       <c r="I20" s="9">
-        <v>38803</v>
-      </c>
-      <c r="J20" s="9" t="s">
+        <v>-3129868</v>
+      </c>
+      <c r="J20" s="9">
+        <v>-3064553</v>
+      </c>
+      <c r="K20" s="9">
+        <v>-3129425</v>
+      </c>
+      <c r="L20" s="9">
+        <v>-4152906</v>
+      </c>
+      <c r="M20" s="9">
+        <v>-4348854</v>
+      </c>
+      <c r="N20" s="9">
+        <v>-5520557</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="12" t="s">
         <v>25</v>
-      </c>
-      <c r="K20" s="9">
-        <v>-3064553</v>
-      </c>
-      <c r="L20" s="9">
-        <v>-64872</v>
-      </c>
-      <c r="M20" s="9">
-        <v>-1023481</v>
-      </c>
-      <c r="N20" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="12" t="s">
-        <v>26</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>1620887</v>
+        <v>1988488</v>
       </c>
       <c r="F21" s="13">
-        <v>1988488</v>
+        <v>1848143</v>
       </c>
       <c r="G21" s="13">
-        <v>1848143</v>
+        <v>1894298</v>
       </c>
       <c r="H21" s="13">
-        <v>1894298</v>
+        <v>3017404</v>
       </c>
       <c r="I21" s="13">
-        <v>3017404</v>
+        <v>3213133</v>
       </c>
       <c r="J21" s="13">
-        <v>3213133</v>
+        <v>3605090</v>
       </c>
       <c r="K21" s="13">
-        <v>3605090</v>
+        <v>3620589</v>
       </c>
       <c r="L21" s="13">
-        <v>3620589</v>
+        <v>4025055</v>
       </c>
       <c r="M21" s="13">
-        <v>4025055</v>
+        <v>5829956</v>
       </c>
       <c r="N21" s="13">
-        <v>5829956</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5674675</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9">
-        <v>-135489</v>
+        <v>-59122</v>
       </c>
       <c r="F22" s="9">
-        <v>-59122</v>
+        <v>-108141</v>
       </c>
       <c r="G22" s="9">
-        <v>-108141</v>
+        <v>-143294</v>
       </c>
       <c r="H22" s="9">
-        <v>-143294</v>
+        <v>-67343</v>
       </c>
       <c r="I22" s="9">
-        <v>-67343</v>
+        <v>-180032</v>
       </c>
       <c r="J22" s="9">
-        <v>-180032</v>
+        <v>-155867</v>
       </c>
       <c r="K22" s="9">
-        <v>-155867</v>
+        <v>-111961</v>
       </c>
       <c r="L22" s="9">
-        <v>-111961</v>
+        <v>-70678</v>
       </c>
       <c r="M22" s="9">
-        <v>-70678</v>
+        <v>-126865</v>
       </c>
       <c r="N22" s="9">
-        <v>-126865</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-183921</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>1485398</v>
+        <v>1929366</v>
       </c>
       <c r="F23" s="13">
-        <v>1929366</v>
+        <v>1740002</v>
       </c>
       <c r="G23" s="13">
-        <v>1740002</v>
+        <v>1751004</v>
       </c>
       <c r="H23" s="13">
-        <v>1751004</v>
+        <v>2950061</v>
       </c>
       <c r="I23" s="13">
-        <v>2950061</v>
+        <v>3033101</v>
       </c>
       <c r="J23" s="13">
-        <v>3033101</v>
+        <v>3449223</v>
       </c>
       <c r="K23" s="13">
-        <v>3449223</v>
+        <v>3508628</v>
       </c>
       <c r="L23" s="13">
-        <v>3508628</v>
+        <v>3954377</v>
       </c>
       <c r="M23" s="13">
-        <v>3954377</v>
+        <v>5703091</v>
       </c>
       <c r="N23" s="13">
-        <v>5703091</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5490754</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1428,7 +1428,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1443,7 +1443,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1458,9 +1458,9 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1495,7 +1495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1510,46 +1510,46 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I29" s="9">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>32</v>
       </c>
@@ -1558,74 +1558,74 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>1157656098</v>
+        <v>841904595</v>
       </c>
       <c r="F30" s="11">
-        <v>841904595</v>
+        <v>951369040</v>
       </c>
       <c r="G30" s="11">
-        <v>951369040</v>
+        <v>1009269041</v>
       </c>
       <c r="H30" s="11">
-        <v>1009269041</v>
+        <v>1434507740</v>
       </c>
       <c r="I30" s="11">
-        <v>1434507740</v>
+        <v>1664966680</v>
       </c>
       <c r="J30" s="11">
-        <v>1664966680</v>
+        <v>535275270</v>
       </c>
       <c r="K30" s="11">
-        <v>535275270</v>
+        <v>547281160</v>
       </c>
       <c r="L30" s="11">
-        <v>547281160</v>
+        <v>752821349</v>
       </c>
       <c r="M30" s="11">
-        <v>752821349</v>
+        <v>722954199</v>
       </c>
       <c r="N30" s="11">
-        <v>722954199</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>636808057</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15">
-        <v>1157656098</v>
+        <v>841904595</v>
       </c>
       <c r="F31" s="15">
-        <v>841904595</v>
+        <v>951369040</v>
       </c>
       <c r="G31" s="15">
-        <v>951369040</v>
+        <v>1009269041</v>
       </c>
       <c r="H31" s="15">
-        <v>1009269041</v>
+        <v>1434507740</v>
       </c>
       <c r="I31" s="15">
-        <v>1434507740</v>
+        <v>1664966680</v>
       </c>
       <c r="J31" s="15">
-        <v>1664966680</v>
+        <v>535275270</v>
       </c>
       <c r="K31" s="15">
-        <v>535275270</v>
+        <v>547281160</v>
       </c>
       <c r="L31" s="15">
-        <v>547281160</v>
+        <v>752821349</v>
       </c>
       <c r="M31" s="15">
-        <v>752821349</v>
+        <v>722954199</v>
       </c>
       <c r="N31" s="15">
-        <v>722954199</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+        <v>636808057</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1640,7 +1640,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1655,7 +1655,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1670,7 +1670,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>34</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1722,46 +1722,46 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>35</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="G37" s="9">
+        <v>0</v>
       </c>
       <c r="H37" s="9">
         <v>0</v>
       </c>
-      <c r="I37" s="9">
-        <v>0</v>
+      <c r="I37" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>32</v>
       </c>
@@ -1770,74 +1770,74 @@
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
-        <v>-18573335</v>
+        <v>352566403</v>
       </c>
       <c r="F38" s="11">
-        <v>352566403</v>
+        <v>357563015</v>
       </c>
       <c r="G38" s="11">
-        <v>357563015</v>
+        <v>720933304</v>
       </c>
       <c r="H38" s="11">
-        <v>720933304</v>
+        <v>606276211</v>
       </c>
       <c r="I38" s="11">
-        <v>606276211</v>
+        <v>-823265900</v>
       </c>
       <c r="J38" s="11">
-        <v>-823265900</v>
+        <v>305684976</v>
       </c>
       <c r="K38" s="11">
-        <v>305684976</v>
+        <v>533024856</v>
       </c>
       <c r="L38" s="11">
-        <v>533024856</v>
+        <v>330985319</v>
       </c>
       <c r="M38" s="11">
-        <v>330985319</v>
+        <v>281526539</v>
       </c>
       <c r="N38" s="11">
-        <v>281526539</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+        <v>280201841</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15">
-        <v>-18573335</v>
+        <v>352566403</v>
       </c>
       <c r="F39" s="15">
-        <v>352566403</v>
+        <v>357563015</v>
       </c>
       <c r="G39" s="15">
-        <v>357563015</v>
+        <v>720933304</v>
       </c>
       <c r="H39" s="15">
-        <v>720933304</v>
+        <v>606276211</v>
       </c>
       <c r="I39" s="15">
-        <v>606276211</v>
+        <v>-823265900</v>
       </c>
       <c r="J39" s="15">
-        <v>-823265900</v>
+        <v>305684976</v>
       </c>
       <c r="K39" s="15">
-        <v>305684976</v>
+        <v>533024856</v>
       </c>
       <c r="L39" s="15">
-        <v>533024856</v>
+        <v>330985319</v>
       </c>
       <c r="M39" s="15">
-        <v>330985319</v>
+        <v>281526539</v>
       </c>
       <c r="N39" s="15">
-        <v>281526539</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+        <v>280201841</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1852,7 +1852,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1867,7 +1867,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1882,7 +1882,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
         <v>36</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1934,46 +1934,46 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>35</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="G45" s="9">
+        <v>0</v>
       </c>
       <c r="H45" s="9">
         <v>0</v>
       </c>
-      <c r="I45" s="9">
-        <v>0</v>
+      <c r="I45" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N45" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>32</v>
       </c>
@@ -1982,74 +1982,74 @@
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11">
-        <v>297178168</v>
+        <v>243101958</v>
       </c>
       <c r="F46" s="11">
-        <v>243101958</v>
+        <v>299663014</v>
       </c>
       <c r="G46" s="11">
-        <v>299663014</v>
+        <v>295694605</v>
       </c>
       <c r="H46" s="11">
-        <v>295694605</v>
+        <v>375817271</v>
       </c>
       <c r="I46" s="11">
-        <v>375817271</v>
+        <v>306425510</v>
       </c>
       <c r="J46" s="11">
-        <v>306425510</v>
+        <v>293679086</v>
       </c>
       <c r="K46" s="11">
-        <v>293679086</v>
+        <v>326840153</v>
       </c>
       <c r="L46" s="11">
-        <v>326840153</v>
+        <v>360852469</v>
       </c>
       <c r="M46" s="11">
-        <v>360852469</v>
+        <v>367672681</v>
       </c>
       <c r="N46" s="11">
-        <v>367672681</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+        <v>280201841</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15">
-        <v>297178168</v>
+        <v>243101958</v>
       </c>
       <c r="F47" s="15">
-        <v>243101958</v>
+        <v>299663014</v>
       </c>
       <c r="G47" s="15">
-        <v>299663014</v>
+        <v>295694605</v>
       </c>
       <c r="H47" s="15">
-        <v>295694605</v>
+        <v>375817271</v>
       </c>
       <c r="I47" s="15">
-        <v>375817271</v>
+        <v>306425510</v>
       </c>
       <c r="J47" s="15">
-        <v>306425510</v>
+        <v>293679086</v>
       </c>
       <c r="K47" s="15">
-        <v>293679086</v>
+        <v>326840153</v>
       </c>
       <c r="L47" s="15">
-        <v>326840153</v>
+        <v>360852469</v>
       </c>
       <c r="M47" s="15">
-        <v>360852469</v>
+        <v>367672681</v>
       </c>
       <c r="N47" s="15">
-        <v>367672681</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+        <v>280201841</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2064,7 +2064,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2079,7 +2079,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2094,7 +2094,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
         <v>37</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2146,46 +2146,46 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="G53" s="9">
+        <v>0</v>
       </c>
       <c r="H53" s="9">
         <v>0</v>
       </c>
-      <c r="I53" s="9">
-        <v>0</v>
+      <c r="I53" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N53" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>32</v>
       </c>
@@ -2194,74 +2194,74 @@
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
-        <v>841904595</v>
+        <v>951369040</v>
       </c>
       <c r="F54" s="11">
-        <v>951369040</v>
+        <v>1009269041</v>
       </c>
       <c r="G54" s="11">
-        <v>1009269041</v>
+        <v>1434507740</v>
       </c>
       <c r="H54" s="11">
-        <v>1434507740</v>
+        <v>1664966680</v>
       </c>
       <c r="I54" s="11">
-        <v>1664966680</v>
+        <v>535275270</v>
       </c>
       <c r="J54" s="11">
-        <v>535275270</v>
+        <v>547281160</v>
       </c>
       <c r="K54" s="11">
-        <v>547281160</v>
+        <v>752821349</v>
       </c>
       <c r="L54" s="11">
-        <v>752821349</v>
+        <v>722954199</v>
       </c>
       <c r="M54" s="11">
-        <v>722954199</v>
+        <v>636808057</v>
       </c>
       <c r="N54" s="11">
         <v>636808057</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
       <c r="E55" s="15">
-        <v>841904595</v>
+        <v>951369040</v>
       </c>
       <c r="F55" s="15">
-        <v>951369040</v>
+        <v>1009269041</v>
       </c>
       <c r="G55" s="15">
-        <v>1009269041</v>
+        <v>1434507740</v>
       </c>
       <c r="H55" s="15">
-        <v>1434507740</v>
+        <v>1664966680</v>
       </c>
       <c r="I55" s="15">
-        <v>1664966680</v>
+        <v>535275270</v>
       </c>
       <c r="J55" s="15">
-        <v>535275270</v>
+        <v>547281160</v>
       </c>
       <c r="K55" s="15">
-        <v>547281160</v>
+        <v>752821349</v>
       </c>
       <c r="L55" s="15">
-        <v>752821349</v>
+        <v>722954199</v>
       </c>
       <c r="M55" s="15">
-        <v>722954199</v>
+        <v>636808057</v>
       </c>
       <c r="N55" s="15">
         <v>636808057</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2276,7 +2276,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2291,7 +2291,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2306,7 +2306,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
         <v>38</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2358,122 +2358,122 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H61" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I61" s="9">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="H61" s="9">
+        <v>0</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L61" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M61" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N61" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11">
-        <v>2288600</v>
+        <v>2679310</v>
       </c>
       <c r="F62" s="11">
-        <v>2679310</v>
+        <v>4167319</v>
       </c>
       <c r="G62" s="11">
-        <v>4167319</v>
+        <v>4465026</v>
       </c>
       <c r="H62" s="11">
-        <v>4465026</v>
+        <v>6606760</v>
       </c>
       <c r="I62" s="11">
-        <v>6606760</v>
+        <v>6136657</v>
       </c>
       <c r="J62" s="11">
-        <v>6136657</v>
+        <v>8252261</v>
       </c>
       <c r="K62" s="11">
-        <v>8252261</v>
+        <v>8075341</v>
       </c>
       <c r="L62" s="11">
-        <v>8075341</v>
+        <v>11847538</v>
       </c>
       <c r="M62" s="11">
-        <v>11847538</v>
+        <v>10941370</v>
       </c>
       <c r="N62" s="11">
-        <v>10941370</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+        <v>13719660</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
       <c r="E63" s="15">
-        <v>2288600</v>
+        <v>2679310</v>
       </c>
       <c r="F63" s="15">
-        <v>2679310</v>
+        <v>4167319</v>
       </c>
       <c r="G63" s="15">
-        <v>4167319</v>
+        <v>4465026</v>
       </c>
       <c r="H63" s="15">
-        <v>4465026</v>
+        <v>6606760</v>
       </c>
       <c r="I63" s="15">
-        <v>6606760</v>
+        <v>6136657</v>
       </c>
       <c r="J63" s="15">
-        <v>6136657</v>
+        <v>8252261</v>
       </c>
       <c r="K63" s="15">
-        <v>8252261</v>
+        <v>8075341</v>
       </c>
       <c r="L63" s="15">
-        <v>8075341</v>
+        <v>11847538</v>
       </c>
       <c r="M63" s="15">
-        <v>11847538</v>
+        <v>10941370</v>
       </c>
       <c r="N63" s="15">
-        <v>10941370</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+        <v>13719660</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2488,7 +2488,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2503,7 +2503,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2518,7 +2518,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
         <v>39</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2570,122 +2570,122 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G69" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="G69" s="9">
+        <v>0</v>
       </c>
       <c r="H69" s="9">
         <v>0</v>
       </c>
-      <c r="I69" s="9">
-        <v>0</v>
+      <c r="I69" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K69" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L69" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M69" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N69" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
-        <v>1542999</v>
+        <v>3362048</v>
       </c>
       <c r="F70" s="11">
-        <v>3362048</v>
+        <v>2436658</v>
       </c>
       <c r="G70" s="11">
-        <v>2436658</v>
+        <v>3821618</v>
       </c>
       <c r="H70" s="11">
-        <v>3821618</v>
+        <v>1733391</v>
       </c>
       <c r="I70" s="11">
-        <v>1733391</v>
+        <v>4370605</v>
       </c>
       <c r="J70" s="11">
-        <v>4370605</v>
+        <v>2316444</v>
       </c>
       <c r="K70" s="11">
-        <v>2316444</v>
+        <v>6749736</v>
       </c>
       <c r="L70" s="11">
-        <v>6749736</v>
+        <v>2879030</v>
       </c>
       <c r="M70" s="11">
-        <v>2879030</v>
+        <v>7583081</v>
       </c>
       <c r="N70" s="11">
-        <v>7583081</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5868648</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15">
-        <v>1542999</v>
+        <v>3362048</v>
       </c>
       <c r="F71" s="15">
-        <v>3362048</v>
+        <v>2436658</v>
       </c>
       <c r="G71" s="15">
-        <v>2436658</v>
+        <v>3821618</v>
       </c>
       <c r="H71" s="15">
-        <v>3821618</v>
+        <v>1733391</v>
       </c>
       <c r="I71" s="15">
-        <v>1733391</v>
+        <v>4370605</v>
       </c>
       <c r="J71" s="15">
-        <v>4370605</v>
+        <v>2316444</v>
       </c>
       <c r="K71" s="15">
-        <v>2316444</v>
+        <v>6749736</v>
       </c>
       <c r="L71" s="15">
-        <v>6749736</v>
+        <v>2879030</v>
       </c>
       <c r="M71" s="15">
-        <v>2879030</v>
+        <v>7583081</v>
       </c>
       <c r="N71" s="15">
-        <v>7583081</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5868648</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2700,7 +2700,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2715,7 +2715,7 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2730,7 +2730,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
         <v>40</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2782,122 +2782,122 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C77" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G77" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="G77" s="9">
+        <v>0</v>
       </c>
       <c r="H77" s="9">
         <v>0</v>
       </c>
-      <c r="I77" s="9">
-        <v>0</v>
+      <c r="I77" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K77" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L77" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M77" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N77" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11">
-        <v>1152289</v>
+        <v>1874039</v>
       </c>
       <c r="F78" s="11">
-        <v>1874039</v>
+        <v>2138951</v>
       </c>
       <c r="G78" s="11">
-        <v>2138951</v>
+        <v>1679885</v>
       </c>
       <c r="H78" s="11">
-        <v>1679885</v>
+        <v>2203495</v>
       </c>
       <c r="I78" s="11">
-        <v>2203495</v>
+        <v>2241413</v>
       </c>
       <c r="J78" s="11">
-        <v>2241413</v>
+        <v>2493364</v>
       </c>
       <c r="K78" s="11">
-        <v>2493364</v>
+        <v>2977539</v>
       </c>
       <c r="L78" s="11">
-        <v>2977539</v>
+        <v>3785198</v>
       </c>
       <c r="M78" s="11">
-        <v>3785198</v>
+        <v>4804791</v>
       </c>
       <c r="N78" s="11">
-        <v>4804791</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5074438</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15">
-        <v>1152289</v>
+        <v>1874039</v>
       </c>
       <c r="F79" s="15">
-        <v>1874039</v>
+        <v>2138951</v>
       </c>
       <c r="G79" s="15">
-        <v>2138951</v>
+        <v>1679885</v>
       </c>
       <c r="H79" s="15">
-        <v>1679885</v>
+        <v>2203495</v>
       </c>
       <c r="I79" s="15">
-        <v>2203495</v>
+        <v>2241413</v>
       </c>
       <c r="J79" s="15">
-        <v>2241413</v>
+        <v>2493364</v>
       </c>
       <c r="K79" s="15">
-        <v>2493364</v>
+        <v>2977539</v>
       </c>
       <c r="L79" s="15">
-        <v>2977539</v>
+        <v>3785198</v>
       </c>
       <c r="M79" s="15">
-        <v>3785198</v>
+        <v>4804791</v>
       </c>
       <c r="N79" s="15">
-        <v>4804791</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5074438</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2912,7 +2912,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2927,7 +2927,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2942,7 +2942,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
         <v>41</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2994,122 +2994,122 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C85" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G85" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="G85" s="9">
+        <v>0</v>
       </c>
       <c r="H85" s="9">
         <v>0</v>
       </c>
-      <c r="I85" s="9">
-        <v>0</v>
+      <c r="I85" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K85" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L85" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M85" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N85" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
-        <v>2679310</v>
+        <v>4167319</v>
       </c>
       <c r="F86" s="11">
-        <v>4167319</v>
+        <v>4465026</v>
       </c>
       <c r="G86" s="11">
-        <v>4465026</v>
+        <v>6606760</v>
       </c>
       <c r="H86" s="11">
-        <v>6606760</v>
+        <v>6136656</v>
       </c>
       <c r="I86" s="11">
-        <v>6136656</v>
+        <v>8252261</v>
       </c>
       <c r="J86" s="11">
-        <v>8252261</v>
+        <v>8075341</v>
       </c>
       <c r="K86" s="11">
-        <v>8075341</v>
+        <v>11847538</v>
       </c>
       <c r="L86" s="11">
-        <v>11847538</v>
+        <v>10941370</v>
       </c>
       <c r="M86" s="11">
-        <v>10941370</v>
+        <v>13719660</v>
       </c>
       <c r="N86" s="11">
-        <v>13719660</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+        <v>14513870</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15">
-        <v>2679310</v>
+        <v>4167319</v>
       </c>
       <c r="F87" s="15">
-        <v>4167319</v>
+        <v>4465026</v>
       </c>
       <c r="G87" s="15">
-        <v>4465026</v>
+        <v>6606760</v>
       </c>
       <c r="H87" s="15">
-        <v>6606760</v>
+        <v>6136656</v>
       </c>
       <c r="I87" s="15">
-        <v>6136656</v>
+        <v>8252261</v>
       </c>
       <c r="J87" s="15">
-        <v>8252261</v>
+        <v>8075341</v>
       </c>
       <c r="K87" s="15">
-        <v>8075341</v>
+        <v>11847538</v>
       </c>
       <c r="L87" s="15">
-        <v>11847538</v>
+        <v>10941370</v>
       </c>
       <c r="M87" s="15">
-        <v>10941370</v>
+        <v>13719660</v>
       </c>
       <c r="N87" s="15">
-        <v>13719660</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+        <v>14513870</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3124,7 +3124,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3139,7 +3139,7 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3154,7 +3154,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B91" s="7" t="s">
         <v>42</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3206,7 +3206,7 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>32</v>
       </c>
@@ -3215,37 +3215,37 @@
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9">
-        <v>1977</v>
+        <v>3182</v>
       </c>
       <c r="F93" s="9">
-        <v>3182</v>
+        <v>4380</v>
       </c>
       <c r="G93" s="9">
-        <v>4380</v>
+        <v>4424</v>
       </c>
       <c r="H93" s="9">
-        <v>4424</v>
+        <v>4606</v>
       </c>
       <c r="I93" s="9">
-        <v>4606</v>
+        <v>3686</v>
       </c>
       <c r="J93" s="9">
-        <v>3686</v>
+        <v>15417</v>
       </c>
       <c r="K93" s="9">
-        <v>15417</v>
+        <v>14755</v>
       </c>
       <c r="L93" s="9">
-        <v>14755</v>
+        <v>15738</v>
       </c>
       <c r="M93" s="9">
-        <v>15738</v>
+        <v>15134</v>
       </c>
       <c r="N93" s="9">
-        <v>15134</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+        <v>21544</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3260,7 +3260,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -3275,7 +3275,7 @@
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3290,7 +3290,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B97" s="7" t="s">
         <v>44</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3342,7 +3342,7 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>32</v>
       </c>
@@ -3351,37 +3351,37 @@
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9">
-        <v>-83076</v>
+        <v>9536</v>
       </c>
       <c r="F99" s="9">
-        <v>9536</v>
+        <v>6815</v>
       </c>
       <c r="G99" s="9">
-        <v>6815</v>
+        <v>5301</v>
       </c>
       <c r="H99" s="9">
-        <v>5301</v>
+        <v>2859</v>
       </c>
       <c r="I99" s="9">
-        <v>2859</v>
+        <v>-5309</v>
       </c>
       <c r="J99" s="9">
-        <v>-5309</v>
+        <v>7578</v>
       </c>
       <c r="K99" s="9">
-        <v>7578</v>
+        <v>12663</v>
       </c>
       <c r="L99" s="9">
-        <v>12663</v>
+        <v>8698</v>
       </c>
       <c r="M99" s="9">
-        <v>8698</v>
+        <v>26936</v>
       </c>
       <c r="N99" s="9">
-        <v>26936</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+        <v>20944</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -3396,7 +3396,7 @@
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -3411,7 +3411,7 @@
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3426,7 +3426,7 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B103" s="7" t="s">
         <v>45</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3478,7 +3478,7 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>32</v>
       </c>
@@ -3487,37 +3487,37 @@
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9">
-        <v>3877</v>
+        <v>7709</v>
       </c>
       <c r="F105" s="9">
-        <v>7709</v>
+        <v>7138</v>
       </c>
       <c r="G105" s="9">
-        <v>7138</v>
+        <v>5681</v>
       </c>
       <c r="H105" s="9">
-        <v>5681</v>
+        <v>5863</v>
       </c>
       <c r="I105" s="9">
-        <v>5863</v>
+        <v>7315</v>
       </c>
       <c r="J105" s="9">
-        <v>7315</v>
+        <v>8490</v>
       </c>
       <c r="K105" s="9">
-        <v>8490</v>
+        <v>9110</v>
       </c>
       <c r="L105" s="9">
-        <v>9110</v>
+        <v>10490</v>
       </c>
       <c r="M105" s="9">
-        <v>10490</v>
+        <v>13068</v>
       </c>
       <c r="N105" s="9">
-        <v>13068</v>
-      </c>
-    </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+        <v>18110</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -3532,7 +3532,7 @@
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -3547,7 +3547,7 @@
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -3562,7 +3562,7 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B109" s="7" t="s">
         <v>46</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -3614,7 +3614,7 @@
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>32</v>
       </c>
@@ -3623,37 +3623,37 @@
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G111" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="G111" s="9">
+        <v>4606</v>
       </c>
       <c r="H111" s="9">
-        <v>4606</v>
+        <v>3686</v>
       </c>
       <c r="I111" s="9">
-        <v>3686</v>
+        <v>15417</v>
       </c>
       <c r="J111" s="9">
-        <v>15417</v>
+        <v>14755</v>
       </c>
       <c r="K111" s="9">
-        <v>14755</v>
+        <v>15738</v>
       </c>
       <c r="L111" s="9">
-        <v>15738</v>
+        <v>15134</v>
       </c>
       <c r="M111" s="9">
-        <v>15134</v>
+        <v>21544</v>
       </c>
       <c r="N111" s="9">
-        <v>21544</v>
-      </c>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+        <v>22792</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -3668,7 +3668,7 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -3683,7 +3683,7 @@
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -3698,7 +3698,7 @@
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
     </row>
-    <row r="115" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
         <v>47</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -3750,44 +3750,44 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
       <c r="E117" s="9">
-        <v>9709</v>
+        <v>13661</v>
       </c>
       <c r="F117" s="9">
-        <v>13661</v>
+        <v>13237</v>
       </c>
       <c r="G117" s="9">
-        <v>13237</v>
+        <v>12113</v>
       </c>
       <c r="H117" s="9">
-        <v>12113</v>
+        <v>19256</v>
       </c>
       <c r="I117" s="9">
-        <v>19256</v>
+        <v>30119</v>
       </c>
       <c r="J117" s="9">
-        <v>30119</v>
+        <v>26726</v>
       </c>
       <c r="K117" s="9">
-        <v>26726</v>
+        <v>36913</v>
       </c>
       <c r="L117" s="9">
-        <v>36913</v>
+        <v>50658</v>
       </c>
       <c r="M117" s="9">
-        <v>50658</v>
+        <v>48897</v>
       </c>
       <c r="N117" s="9">
-        <v>48897</v>
-      </c>
-    </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+        <v>71691</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>49</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>50</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>51</v>
       </c>
@@ -3871,19 +3871,19 @@
         <v>0</v>
       </c>
       <c r="F120" s="11">
-        <v>0</v>
+        <v>6485</v>
       </c>
       <c r="G120" s="11">
-        <v>6485</v>
+        <v>3816</v>
       </c>
       <c r="H120" s="11">
-        <v>3816</v>
+        <v>11098</v>
       </c>
       <c r="I120" s="11">
-        <v>11098</v>
+        <v>-21399</v>
       </c>
       <c r="J120" s="11">
-        <v>-21399</v>
+        <v>0</v>
       </c>
       <c r="K120" s="11">
         <v>0</v>
@@ -3892,161 +3892,161 @@
         <v>0</v>
       </c>
       <c r="M120" s="11">
-        <v>0</v>
+        <v>334</v>
       </c>
       <c r="N120" s="11">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7637</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="E121" s="9">
-        <v>54766</v>
+        <v>71141</v>
       </c>
       <c r="F121" s="9">
-        <v>71141</v>
+        <v>76505</v>
       </c>
       <c r="G121" s="9">
-        <v>76505</v>
+        <v>69146</v>
       </c>
       <c r="H121" s="9">
-        <v>69146</v>
+        <v>85251</v>
       </c>
       <c r="I121" s="9">
-        <v>85251</v>
+        <v>76615</v>
       </c>
       <c r="J121" s="9">
-        <v>76615</v>
+        <v>104006</v>
       </c>
       <c r="K121" s="9">
-        <v>104006</v>
+        <v>99360</v>
       </c>
       <c r="L121" s="9">
-        <v>99360</v>
+        <v>101924</v>
       </c>
       <c r="M121" s="9">
-        <v>101924</v>
+        <v>216191</v>
       </c>
       <c r="N121" s="9">
-        <v>216191</v>
-      </c>
-    </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+        <v>108670</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C122" s="11"/>
       <c r="D122" s="11"/>
       <c r="E122" s="11">
-        <v>5374</v>
+        <v>2111</v>
       </c>
       <c r="F122" s="11">
-        <v>2111</v>
+        <v>3261</v>
       </c>
       <c r="G122" s="11">
-        <v>3261</v>
+        <v>4965</v>
       </c>
       <c r="H122" s="11">
-        <v>4965</v>
+        <v>6241</v>
       </c>
       <c r="I122" s="11">
-        <v>6241</v>
+        <v>5260</v>
       </c>
       <c r="J122" s="11">
-        <v>5260</v>
+        <v>19019</v>
       </c>
       <c r="K122" s="11">
-        <v>19019</v>
+        <v>13414</v>
       </c>
       <c r="L122" s="11">
-        <v>13414</v>
+        <v>21536</v>
       </c>
       <c r="M122" s="11">
-        <v>21536</v>
+        <v>24094</v>
       </c>
       <c r="N122" s="11">
-        <v>24094</v>
-      </c>
-    </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+        <v>13295</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="9">
-        <v>45595</v>
+        <v>45146</v>
       </c>
       <c r="F123" s="9">
-        <v>45146</v>
+        <v>50001</v>
       </c>
       <c r="G123" s="9">
-        <v>50001</v>
+        <v>55630</v>
       </c>
       <c r="H123" s="9">
-        <v>55630</v>
+        <v>65109</v>
       </c>
       <c r="I123" s="9">
-        <v>65109</v>
+        <v>64724</v>
       </c>
       <c r="J123" s="9">
-        <v>64724</v>
+        <v>68764</v>
       </c>
       <c r="K123" s="9">
-        <v>68764</v>
+        <v>83501</v>
       </c>
       <c r="L123" s="9">
-        <v>83501</v>
+        <v>158833</v>
       </c>
       <c r="M123" s="9">
-        <v>158833</v>
+        <v>108868</v>
       </c>
       <c r="N123" s="9">
-        <v>108868</v>
-      </c>
-    </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+        <v>150344</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C124" s="11"/>
       <c r="D124" s="11"/>
       <c r="E124" s="11">
-        <v>114655</v>
+        <v>192183</v>
       </c>
       <c r="F124" s="11">
-        <v>192183</v>
+        <v>172099</v>
       </c>
       <c r="G124" s="11">
-        <v>172099</v>
+        <v>238156</v>
       </c>
       <c r="H124" s="11">
-        <v>238156</v>
+        <v>220477</v>
       </c>
       <c r="I124" s="11">
-        <v>220477</v>
+        <v>283880</v>
       </c>
       <c r="J124" s="11">
-        <v>283880</v>
+        <v>273879</v>
       </c>
       <c r="K124" s="11">
-        <v>273879</v>
+        <v>423933</v>
       </c>
       <c r="L124" s="11">
-        <v>423933</v>
+        <v>432653</v>
       </c>
       <c r="M124" s="11">
-        <v>432653</v>
+        <v>468820</v>
       </c>
       <c r="N124" s="11">
-        <v>468820</v>
-      </c>
-    </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+        <v>493040</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>56</v>
       </c>
@@ -4083,81 +4083,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C126" s="11"/>
       <c r="D126" s="11"/>
       <c r="E126" s="11">
-        <v>138237</v>
+        <v>103573</v>
       </c>
       <c r="F126" s="11">
-        <v>103573</v>
+        <v>131990</v>
       </c>
       <c r="G126" s="11">
-        <v>131990</v>
+        <v>131595</v>
       </c>
       <c r="H126" s="11">
-        <v>131595</v>
+        <v>141261</v>
       </c>
       <c r="I126" s="11">
-        <v>141261</v>
+        <v>261734</v>
       </c>
       <c r="J126" s="11">
-        <v>261734</v>
+        <v>294215</v>
       </c>
       <c r="K126" s="11">
-        <v>294215</v>
+        <v>212176</v>
       </c>
       <c r="L126" s="11">
-        <v>212176</v>
+        <v>241562</v>
       </c>
       <c r="M126" s="11">
-        <v>241562</v>
+        <v>313633</v>
       </c>
       <c r="N126" s="11">
-        <v>313633</v>
-      </c>
-    </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+        <v>371909</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C127" s="15"/>
       <c r="D127" s="15"/>
       <c r="E127" s="15">
-        <v>368336</v>
+        <v>427815</v>
       </c>
       <c r="F127" s="15">
-        <v>427815</v>
+        <v>453578</v>
       </c>
       <c r="G127" s="15">
-        <v>453578</v>
+        <v>515421</v>
       </c>
       <c r="H127" s="15">
-        <v>515421</v>
+        <v>548693</v>
       </c>
       <c r="I127" s="15">
-        <v>548693</v>
+        <v>700933</v>
       </c>
       <c r="J127" s="15">
-        <v>700933</v>
+        <v>786609</v>
       </c>
       <c r="K127" s="15">
-        <v>786609</v>
+        <v>869297</v>
       </c>
       <c r="L127" s="15">
-        <v>869297</v>
+        <v>1007166</v>
       </c>
       <c r="M127" s="15">
-        <v>1007166</v>
+        <v>1180837</v>
       </c>
       <c r="N127" s="15">
-        <v>1180837</v>
-      </c>
-    </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1216586</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -4172,7 +4172,7 @@
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -4187,7 +4187,7 @@
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -4202,7 +4202,7 @@
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
     </row>
-    <row r="131" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B131" s="7" t="s">
         <v>58</v>
       </c>
@@ -4219,7 +4219,7 @@
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -4234,7 +4234,7 @@
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>59</v>
       </c>
@@ -4253,7 +4253,7 @@
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>61</v>
       </c>
@@ -4272,7 +4272,7 @@
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>63</v>
       </c>
@@ -4291,7 +4291,7 @@
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>64</v>
       </c>
@@ -4310,7 +4310,7 @@
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>65</v>
       </c>
@@ -4321,7 +4321,7 @@
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>67</v>
       </c>
@@ -4332,7 +4332,7 @@
       <c r="E138" s="11"/>
       <c r="F138" s="11"/>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
         <v>69</v>
       </c>
@@ -4343,7 +4343,7 @@
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
         <v>69</v>
       </c>
@@ -4354,7 +4354,7 @@
       <c r="E140" s="11"/>
       <c r="F140" s="11"/>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>72</v>
       </c>
@@ -4365,7 +4365,7 @@
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
         <v>74</v>
       </c>
@@ -4376,7 +4376,7 @@
       <c r="E142" s="11"/>
       <c r="F142" s="11"/>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
         <v>75</v>
       </c>
@@ -4387,7 +4387,7 @@
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
         <v>77</v>
       </c>
@@ -4398,7 +4398,7 @@
       <c r="E144" s="11"/>
       <c r="F144" s="11"/>
     </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>78</v>
       </c>
@@ -4409,7 +4409,7 @@
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
     </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>79</v>
       </c>
@@ -4420,7 +4420,7 @@
       <c r="E146" s="11"/>
       <c r="F146" s="11"/>
     </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>81</v>
       </c>
